--- a/biology/Botanique/Asphodèle_fistuleux/Asphodèle_fistuleux.xlsx
+++ b/biology/Botanique/Asphodèle_fistuleux/Asphodèle_fistuleux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asphod%C3%A8le_fistuleux</t>
+          <t>Asphodèle_fistuleux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asphodelus fistulosus
-L'Asphodèle fistuleux (Asphodelus fistulosus) est une espèce de  plante herbacée vivace de la famille des Asphodélacées[1], depuis 2016[2] (anciennement Liliacées, puis Xanthoracée en 2009).
+L'Asphodèle fistuleux (Asphodelus fistulosus) est une espèce de  plante herbacée vivace de la famille des Asphodélacées, depuis 2016 (anciennement Liliacées, puis Xanthoracée en 2009).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Asphod%C3%A8le_fistuleux</t>
+          <t>Asphodèle_fistuleux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du grec. Dans les croyances antiques, ces plantes tapissaient les prairies des Champs Élysées.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Asphod%C3%A8le_fistuleux</t>
+          <t>Asphodèle_fistuleux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Asphodèle fistuleux est haut de 20-60 cm, glabre, à fibres radicales longues et peu épaisses. La tige est creuse, simple ou plus souvent rameuse et dichotome au sommet.
 Les feuilles sont étroites (1-3 mm), demi-cylindriques, un peu creuses, glaucescentes, insérées en spirale à la base.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Asphod%C3%A8le_fistuleux</t>
+          <t>Asphodèle_fistuleux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Détail de la fleur.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Asphod%C3%A8le_fistuleux</t>
+          <t>Asphodèle_fistuleux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,11 +632,13 @@
           <t>Écologie et répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Écologie : friches et milieux sablonneux à l'arrière du littoral méditerranéen : Roussillon, Languedoc, Provence[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Écologie : friches et milieux sablonneux à l'arrière du littoral méditerranéen : Roussillon, Languedoc, Provence.
 Répartition : toute la région méditerranéenne (cirsumméditerranéen) ; Inde.
-Floraison : d'avril à mai[3].</t>
+Floraison : d'avril à mai.</t>
         </is>
       </c>
     </row>
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Asphod%C3%A8le_fistuleux</t>
+          <t>Asphodèle_fistuleux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,48 +666,122 @@
           <t>Plante-hôte</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Asphodèles font partie des plantes à introduire dans les oliveraies car elles abritent des insectes auxiliaires[4].
-Parasites
-Comme Asphodelus ramosus, la plante est parasitée par un Eurytomidé Bruchophagus abscedus. Cet insecte pond dans les jeunes capsules après la floraison. Les adultes émergent des capsules de l'année précédente après que les larves se soient nourries au détriment des graines.
-Un diptère Tephritidae Myopites inulaedyssenterica a été observé émergeant d'une capsule d'A. fistulosus[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Asphodèles font partie des plantes à introduire dans les oliveraies car elles abritent des insectes auxiliaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Asphodèle_fistuleux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_fistuleux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Plante-hôte</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Parasites</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme Asphodelus ramosus, la plante est parasitée par un Eurytomidé Bruchophagus abscedus. Cet insecte pond dans les jeunes capsules après la floraison. Les adultes émergent des capsules de l'année précédente après que les larves se soient nourries au détriment des graines.
+Un diptère Tephritidae Myopites inulaedyssenterica a été observé émergeant d'une capsule d'A. fistulosus.
 Des orthoptères comme l'éphippigère carénée (Uromenus rugosicollis) pondent dans les tiges avec leur tarière ou oviscapte.
-Parasitoïdes
-De nombreux hyménoptères parasitoïdes s'intéressent  au contenu des capsules parasitées :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Asphodèle_fistuleux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_fistuleux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Plante-hôte</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Parasitoïdes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux hyménoptères parasitoïdes s'intéressent  au contenu des capsules parasitées :
 Eurytomidae avec Eurytoma asphodeli,
 Eupelmidae avec Eupelmus urozonus, E. confusus et E. gemelus,
 Pteromalidae avec Pteromalus thetys.
-Les pontes de sauterelles (Uromenus) attirent le parasitoïde Eupelmidae Anastatus uromeni[6].
+Les pontes de sauterelles (Uromenus) attirent le parasitoïde Eupelmidae Anastatus uromeni.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Asphod%C3%A8le_fistuleux</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_fistuleux</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Asphodèle_fistuleux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_fistuleux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Espèces voisines</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Asphodelus ramosus
 Asphodelus cerasiferus</t>
